--- a/biology/Botanique/Joël_Lodé/Joël_Lodé.xlsx
+++ b/biology/Botanique/Joël_Lodé/Joël_Lodé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jo%C3%ABl_Lod%C3%A9</t>
+          <t>Joël_Lodé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joël Lodé, né en 1952, est un naturaliste français, spécialiste des cactus.
-En 1977, Joël Lodé est le lauréat du prix André de Saint-Sauveur décerné par l'académie des sports, pour « un exploit sportif exceptionnel et de caractère original » en cyclotourisme[1]. En 1988, il fonde la revue trimestrielle Cactus Aventures, qui devient Cactus-Aventures International en 1995[2].
+En 1977, Joël Lodé est le lauréat du prix André de Saint-Sauveur décerné par l'académie des sports, pour « un exploit sportif exceptionnel et de caractère original » en cyclotourisme. En 1988, il fonde la revue trimestrielle Cactus Aventures, qui devient Cactus-Aventures International en 1995.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jo%C3%ABl_Lod%C3%A9</t>
+          <t>Joël_Lodé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Joël Lodé, Taxonomie des Cactaceae : La nouvelle classification des Cactées basée sur la recherche moléculaire et expliquée, vol. I : Acanthocalycium - Lymanbensonia, Cactus-Aventures (ISBN 978-84-617-3723-9)
 Joël Lodé, Taxonomie des Cactaceae : La nouvelle classification des Cactées basée sur la recherche moléculaire et expliquée, vol. II : Maihuenia - Yungasocereus, Cactus-Aventures, 2015 (ISBN 978-84-617-3692-8)
